--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -43,37 +43,37 @@
     <t>worst</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>shit</t>
@@ -100,22 +100,19 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>true</t>
@@ -127,12 +124,12 @@
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -619,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9038461538461539</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8484848484848485</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.7368421052631579</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.72</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.775</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -869,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.5172413793103449</v>
+        <v>0.52</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -937,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.3636363636363636</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -969,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6428571428571429</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.2926829268292683</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1019,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6159420289855072</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L12">
         <v>12</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>0.1690140845070423</v>
+        <v>0.1302367941712204</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>59</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K14">
-        <v>0.1520947176684882</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L14">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>931</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4468085106382979</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K15">
-        <v>0.07801418439716312</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="L15">
         <v>22</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>37</v>
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1794871794871795</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1287,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K17">
-        <v>0.06349206349206349</v>
+        <v>0.05271084337349398</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>295</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1319,13 +1319,13 @@
         <v>39</v>
       </c>
       <c r="K18">
-        <v>0.05421686746987952</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>628</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1345,13 +1345,13 @@
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.02922077922077922</v>
+        <v>0.02476958525345622</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>598</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1371,25 +1371,25 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>0.02768166089965398</v>
+        <v>0.02179487179487179</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1686</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
